--- a/GameText/Assets/Project/Data/Excel/Book1.xlsx
+++ b/GameText/Assets/Project/Data/Excel/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hetar\Desktop\AI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Git\Git_GameText\GameText\GameText\Assets\Project\Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,17 +24,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>AS</t>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DD</t>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FF</t>
+    <t>テキスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブテキスト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,19 +390,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="52.69921875" customWidth="1"/>
+    <col min="5" max="5" width="52.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,8 +414,11 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -415,10 +427,392 @@
       </c>
       <c r="D3" s="1">
         <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>21</v>
+      </c>
+      <c r="E23" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1">
+        <v>23</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <v>26</v>
+      </c>
+      <c r="E28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>